--- a/BOM.Guide.xlsx
+++ b/BOM.Guide.xlsx
@@ -9,11 +9,12 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="500" windowWidth="16560" windowHeight="17500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="9420" yWindow="500" windowWidth="16560" windowHeight="17500" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="GUIDE" sheetId="2" r:id="rId2"/>
+    <sheet name="Build.01" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="542" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="189">
   <si>
     <t>Source:</t>
   </si>
@@ -586,16 +587,48 @@
   </si>
   <si>
     <t>SOT-23</t>
+  </si>
+  <si>
+    <t>incoming Mouser</t>
+  </si>
+  <si>
+    <t>filled wrong item in the basket! Wait for incoming Mouser</t>
+  </si>
+  <si>
+    <t>incoming eBay 2022</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="12"/>
+      <color theme="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -633,10 +666,14 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -651,8 +688,13 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="5">
+    <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2719,8 +2761,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView showRuler="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="A26" sqref="A1:F26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -3220,4 +3262,524 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:H26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A1" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C1" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E1" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" s="5" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3">
+        <v>7</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" s="5"/>
+      <c r="G2" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3">
+        <v>7</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F3" s="5"/>
+    </row>
+    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3">
+        <v>6</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F4" s="5"/>
+      <c r="G4" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3">
+        <v>4</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F5" s="5"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3">
+        <v>2</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F6" s="5"/>
+    </row>
+    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3">
+        <v>3</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F7" s="5"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3">
+        <v>1</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>139</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F8" s="5"/>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3">
+        <v>1</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F9" s="5"/>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3">
+        <v>1</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F11" s="5"/>
+      <c r="G11" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3">
+        <v>6</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3">
+        <v>1</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>170</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>186</v>
+      </c>
+      <c r="H14" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3">
+        <v>1</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="5"/>
+      <c r="G16" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3">
+        <v>1</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E17" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="F17" s="5"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3">
+        <v>1</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F18" s="5"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3">
+        <v>1</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="G19" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3">
+        <v>2</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="E20" s="5" t="s">
+        <v>185</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+      <c r="B21" s="3">
+        <v>2</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="F21" s="5"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+      <c r="B22" s="3">
+        <v>2</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>152</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>180</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+      <c r="B23" s="3">
+        <v>3</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="E23" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F23" s="5"/>
+    </row>
+    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+      <c r="B24" s="3">
+        <v>3</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E24" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F24" s="5"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+      <c r="B25" s="3">
+        <v>1</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F25" s="5" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+      <c r="B26" s="3">
+        <v>12</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="E26" s="5" t="s">
+        <v>184</v>
+      </c>
+      <c r="F26" s="5"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/BOM.Guide.xlsx
+++ b/BOM.Guide.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="500" windowWidth="16560" windowHeight="17500" tabRatio="500" activeTab="2"/>
+    <workbookView xWindow="9420" yWindow="500" windowWidth="16560" windowHeight="17500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="GUIDE" sheetId="2" r:id="rId2"/>
     <sheet name="Build.01" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="190">
   <si>
     <t>Source:</t>
   </si>
@@ -596,13 +596,16 @@
   </si>
   <si>
     <t>incoming eBay 2022</t>
+  </si>
+  <si>
+    <t>OPA4171 or maybe TL074 IDK</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -629,6 +632,12 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -673,7 +682,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -689,6 +698,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2759,10 +2771,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <sheetPr enableFormatConditionsCalculation="0">
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView showRuler="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="A26" sqref="A1:F26"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2771,6 +2786,7 @@
     <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
     <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -2993,7 +3009,7 @@
       </c>
       <c r="F12" s="5"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3009,7 +3025,7 @@
       <c r="E13" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F13" s="7" t="s">
         <v>178</v>
       </c>
     </row>
@@ -3043,7 +3059,7 @@
       <c r="C15" s="4" t="s">
         <v>153</v>
       </c>
-      <c r="D15" s="3" t="s">
+      <c r="D15" s="4" t="s">
         <v>182</v>
       </c>
       <c r="E15" s="5" t="s">
@@ -3053,7 +3069,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3063,8 +3079,8 @@
       <c r="C16" s="4" t="s">
         <v>66</v>
       </c>
-      <c r="D16" s="3" t="s">
-        <v>183</v>
+      <c r="D16" s="4" t="s">
+        <v>189</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>61</v>
@@ -3165,7 +3181,7 @@
       </c>
       <c r="F21" s="5"/>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3175,13 +3191,13 @@
       <c r="C22" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="3" t="s">
+      <c r="D22" s="4" t="s">
         <v>176</v>
       </c>
       <c r="E22" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="7" t="s">
         <v>177</v>
       </c>
     </row>
@@ -3260,7 +3276,9 @@
       <c r="F26" s="5"/>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="77" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
@@ -3268,8 +3286,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView showRuler="0" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>

--- a/BOM.Guide.xlsx
+++ b/BOM.Guide.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="637" uniqueCount="190">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="198">
   <si>
     <t>Source:</t>
   </si>
@@ -598,7 +598,31 @@
     <t>incoming eBay 2022</t>
   </si>
   <si>
-    <t>OPA4171 or maybe TL074 IDK</t>
+    <t>R24, R26, R27, R29</t>
+  </si>
+  <si>
+    <t>PJ301 THONKICONN6</t>
+  </si>
+  <si>
+    <t>OPA4171</t>
+  </si>
+  <si>
+    <t>a tl074 almost works but the fancy opamp is better</t>
+  </si>
+  <si>
+    <t>J112 works too. Trying others.</t>
+  </si>
+  <si>
+    <t>pre-bend to lay flat on board inside</t>
+  </si>
+  <si>
+    <t>Capacitor_THT:D6.3mm_P2.50mm</t>
+  </si>
+  <si>
+    <t>R27 sets noise volume</t>
+  </si>
+  <si>
+    <t>output protections, could be 100R to 1K</t>
   </si>
 </sst>
 </file>
@@ -2774,10 +2798,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A2" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2825,7 +2849,9 @@
       <c r="E2" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F2" s="5"/>
+      <c r="F2" s="5" t="s">
+        <v>197</v>
+      </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
@@ -2904,10 +2930,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>136</v>
@@ -2915,7 +2941,9 @@
       <c r="E7" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="5"/>
+      <c r="F7" s="5" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
@@ -2925,10 +2953,10 @@
         <v>1</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>166</v>
@@ -2943,10 +2971,10 @@
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>166</v>
@@ -2961,55 +2989,57 @@
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>145</v>
+        <v>22</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>146</v>
+        <v>23</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F10" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
       <c r="B11" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>22</v>
+        <v>171</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F11" s="5"/>
+    </row>
+    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
       <c r="B12" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>171</v>
+        <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F12" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3017,36 +3047,36 @@
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+        <v>165</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
       <c r="B14" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>39</v>
+        <v>153</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>182</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>165</v>
+        <v>48</v>
       </c>
       <c r="F14" s="5" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
@@ -3054,22 +3084,22 @@
         <v>14</v>
       </c>
       <c r="B15" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>153</v>
+        <v>66</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>182</v>
+        <v>191</v>
       </c>
       <c r="E15" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F15" s="5" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+        <v>61</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3077,10 +3107,10 @@
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>189</v>
+        <v>58</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>59</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>61</v>
@@ -3095,13 +3125,13 @@
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -3113,34 +3143,36 @@
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>62</v>
+        <v>98</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>63</v>
+        <v>99</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="F18" s="5"/>
+        <v>185</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>193</v>
+      </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
       <c r="B19" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>98</v>
+        <v>158</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>185</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3148,19 +3180,19 @@
         <v>19</v>
       </c>
       <c r="B20" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>158</v>
+        <v>94</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>185</v>
+        <v>174</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
@@ -3177,9 +3209,11 @@
         <v>18</v>
       </c>
       <c r="E21" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F21" s="5"/>
+        <v>195</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="22" spans="1:6" ht="80" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
@@ -3237,43 +3271,23 @@
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
       <c r="B25" s="3">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C25" s="4" t="s">
-        <v>94</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>95</v>
+        <v>155</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="E25" s="5" t="s">
-        <v>174</v>
-      </c>
-      <c r="F25" s="5" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
-        <v>25</v>
-      </c>
-      <c r="B26" s="3">
-        <v>12</v>
-      </c>
-      <c r="C26" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="E26" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F26" s="5"/>
+      <c r="F25" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/BOM.Guide.xlsx
+++ b/BOM.Guide.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="9420" yWindow="500" windowWidth="16560" windowHeight="17500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="4560" yWindow="500" windowWidth="19120" windowHeight="17500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="GUIDE" sheetId="2" r:id="rId2"/>
-    <sheet name="Build.01" sheetId="3" r:id="rId3"/>
+    <sheet name="Costing" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" iterateDelta="1E-4" concurrentCalc="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="638" uniqueCount="198">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="647" uniqueCount="210">
   <si>
     <t>Source:</t>
   </si>
@@ -592,9 +592,6 @@
     <t>incoming Mouser</t>
   </si>
   <si>
-    <t>filled wrong item in the basket! Wait for incoming Mouser</t>
-  </si>
-  <si>
     <t>incoming eBay 2022</t>
   </si>
   <si>
@@ -616,19 +613,61 @@
     <t>pre-bend to lay flat on board inside</t>
   </si>
   <si>
-    <t>Capacitor_THT:D6.3mm_P2.50mm</t>
-  </si>
-  <si>
     <t>R27 sets noise volume</t>
   </si>
   <si>
     <t>output protections, could be 100R to 1K</t>
+  </si>
+  <si>
+    <t>SOIC-14_3.9x8.7mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>SOIC-8_3.9x4.9mm_P1.27mm</t>
+  </si>
+  <si>
+    <t>shrouded fits</t>
+  </si>
+  <si>
+    <t>Cap_THT:D6.3mm_P2.50mm</t>
+  </si>
+  <si>
+    <t>Crimps v121 karltron.com December 2021 - Derived from Mutable Kinks v4.1 cc-by-sa</t>
+  </si>
+  <si>
+    <t>power cable</t>
+  </si>
+  <si>
+    <t>PCBs</t>
+  </si>
+  <si>
+    <t>Shopping</t>
+  </si>
+  <si>
+    <t>Cost Estimate</t>
+  </si>
+  <si>
+    <t>Extended</t>
+  </si>
+  <si>
+    <t>Packing/Picking</t>
+  </si>
+  <si>
+    <t>change to 1M</t>
+  </si>
+  <si>
+    <t>PCB Set</t>
+  </si>
+  <si>
+    <t>Total Kit Price estimate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
+  </numFmts>
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -667,15 +706,21 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -698,6 +743,17 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -706,7 +762,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -725,6 +781,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="5">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
@@ -2798,10 +2868,10 @@
   <sheetPr enableFormatConditionsCalculation="0">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+    <sheetView tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2809,98 +2879,85 @@
     <col min="1" max="2" width="7.1640625" style="1" customWidth="1"/>
     <col min="3" max="3" width="17.6640625" style="2" customWidth="1"/>
     <col min="4" max="4" width="10.83203125" style="1"/>
-    <col min="5" max="5" width="26.33203125" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="8" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A2" s="3" t="s">
         <v>167</v>
       </c>
-      <c r="B1" s="3" t="s">
+      <c r="B2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="C2" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="D1" s="3" t="s">
+      <c r="D2" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E2" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F2" s="5" t="s">
         <v>169</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="32" x14ac:dyDescent="0.2">
-      <c r="A2" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" s="3">
-        <v>7</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>159</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>166</v>
-      </c>
-      <c r="F2" s="5" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3" s="3">
         <v>7</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="E3" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F3" s="5"/>
+      <c r="F3" s="5" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4" s="3">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="E4" s="5" t="s">
         <v>166</v>
       </c>
       <c r="F4" s="5"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5" s="3">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>129</v>
+        <v>118</v>
       </c>
       <c r="E5" s="5" t="s">
         <v>166</v>
@@ -2909,16 +2966,16 @@
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6" s="3">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>166</v>
@@ -2927,54 +2984,54 @@
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>189</v>
+        <v>163</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>196</v>
-      </c>
+      <c r="F7" s="5"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>143</v>
+        <v>188</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>144</v>
+        <v>136</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="5"/>
+      <c r="F8" s="5" t="s">
+        <v>194</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9" s="3">
         <v>1</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D9" s="3" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>166</v>
@@ -2983,330 +3040,348 @@
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10" s="3">
         <v>1</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>22</v>
+        <v>145</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>23</v>
+        <v>146</v>
       </c>
       <c r="E10" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F10" s="5" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="32" x14ac:dyDescent="0.2">
+      <c r="F10" s="5"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11" s="3">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>171</v>
+        <v>22</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E11" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F11" s="5"/>
-    </row>
-    <row r="12" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="F11" s="5" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="32" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="3">
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>34</v>
+        <v>171</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="F12" s="5"/>
+    </row>
+    <row r="13" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="3">
         <v>1</v>
       </c>
       <c r="C13" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>166</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
+        <v>12</v>
+      </c>
+      <c r="B14" s="3">
+        <v>1</v>
+      </c>
+      <c r="C14" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="D13" s="3" t="s">
+      <c r="D14" s="3" t="s">
         <v>39</v>
       </c>
-      <c r="E13" s="5" t="s">
+      <c r="E14" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F13" s="5" t="s">
+      <c r="F14" s="5" t="s">
         <v>170</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" ht="48" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
-        <v>13</v>
-      </c>
-      <c r="B14" s="3">
-        <v>10</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>153</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>182</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="48" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
+        <v>13</v>
+      </c>
+      <c r="B15" s="3">
+        <v>10</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>14</v>
-      </c>
-      <c r="B15" s="3">
-        <v>1</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>66</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>191</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
-        <v>15</v>
       </c>
       <c r="B16" s="3">
         <v>1</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>59</v>
+        <v>66</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>190</v>
       </c>
       <c r="E16" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="F16" s="5"/>
+        <v>196</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17" s="3">
         <v>1</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>65</v>
+        <v>196</v>
       </c>
       <c r="F17" s="5"/>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18" s="3">
         <v>1</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>98</v>
+        <v>62</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>99</v>
+        <v>63</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>185</v>
-      </c>
-      <c r="F18" s="5" t="s">
-        <v>193</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="F18" s="5"/>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19" s="3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>158</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>185</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>173</v>
+        <v>192</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>94</v>
+        <v>158</v>
       </c>
       <c r="D20" s="3" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="E20" s="5" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="F20" s="5" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="3">
+        <v>1</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>20</v>
-      </c>
-      <c r="B21" s="3">
-        <v>2</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="D21" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="E21" s="5" t="s">
-        <v>195</v>
-      </c>
-      <c r="F21" s="5" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6" ht="80" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
-        <v>21</v>
       </c>
       <c r="B22" s="3">
         <v>2</v>
       </c>
       <c r="C22" s="4" t="s">
+        <v>149</v>
+      </c>
+      <c r="D22" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="E22" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" ht="80" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
+        <v>21</v>
+      </c>
+      <c r="B23" s="3">
+        <v>2</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>152</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D23" s="4" t="s">
         <v>176</v>
       </c>
-      <c r="E22" s="5" t="s">
+      <c r="E23" s="5" t="s">
         <v>180</v>
       </c>
-      <c r="F22" s="7" t="s">
+      <c r="F23" s="7" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
-        <v>22</v>
-      </c>
-      <c r="B23" s="3">
-        <v>3</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>156</v>
-      </c>
-      <c r="D23" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E23" s="5" t="s">
-        <v>85</v>
-      </c>
-      <c r="F23" s="5"/>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24" s="3">
         <v>3</v>
       </c>
       <c r="C24" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="D24" s="3" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="E24" s="5" t="s">
         <v>85</v>
       </c>
       <c r="F24" s="5"/>
     </row>
-    <row r="25" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
+        <v>23</v>
+      </c>
+      <c r="B25" s="3">
+        <v>3</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" s="5" t="s">
+        <v>85</v>
+      </c>
+      <c r="F25" s="5"/>
+    </row>
+    <row r="26" spans="1:6" ht="48" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
-      <c r="B25" s="3">
+      <c r="B26" s="3">
         <v>12</v>
       </c>
-      <c r="C25" s="4" t="s">
+      <c r="C26" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="D25" s="4" t="s">
-        <v>190</v>
-      </c>
-      <c r="E25" s="5" t="s">
+      <c r="D26" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E26" s="5" t="s">
         <v>184</v>
       </c>
-      <c r="F25" s="5"/>
+      <c r="F26" s="5"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="77" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
+  <pageSetup scale="85" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H26"/>
+  <dimension ref="A1:M28"/>
   <sheetViews>
     <sheetView showRuler="0" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="M4" sqref="M4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>167</v>
       </c>
@@ -3325,8 +3400,17 @@
       <c r="F1" s="5" t="s">
         <v>169</v>
       </c>
-    </row>
-    <row r="2" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="G1" t="s">
+        <v>203</v>
+      </c>
+      <c r="H1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I1" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -3346,8 +3430,15 @@
       <c r="G2" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="3" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H2" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="I2" s="13">
+        <f>H2*B2</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -3364,8 +3455,24 @@
         <v>166</v>
       </c>
       <c r="F3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H3" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="I3" s="13">
+        <f t="shared" ref="I3:I27" si="0">H3*B3</f>
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="K3" t="s">
+        <v>206</v>
+      </c>
+      <c r="L3" t="s">
+        <v>208</v>
+      </c>
+      <c r="M3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -3385,8 +3492,25 @@
       <c r="G4" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="5" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H4" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="I4" s="13">
+        <f t="shared" si="0"/>
+        <v>0.06</v>
+      </c>
+      <c r="K4" s="13">
+        <v>30</v>
+      </c>
+      <c r="L4" s="13">
+        <v>20</v>
+      </c>
+      <c r="M4" s="13">
+        <f>SUM(I2:I27)*1.5 + K4+L4</f>
+        <v>67.67</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -3403,8 +3527,15 @@
         <v>166</v>
       </c>
       <c r="F5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H5" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="I5" s="13">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -3421,8 +3552,15 @@
         <v>166</v>
       </c>
       <c r="F6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="32" x14ac:dyDescent="0.2">
+      <c r="H6" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="I6" s="13">
+        <f t="shared" si="0"/>
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" ht="32" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -3439,8 +3577,15 @@
         <v>166</v>
       </c>
       <c r="F7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H7" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="I7" s="13">
+        <f t="shared" si="0"/>
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -3450,15 +3595,24 @@
       <c r="C8" s="4" t="s">
         <v>139</v>
       </c>
-      <c r="D8" s="3" t="s">
+      <c r="D8" s="10" t="s">
         <v>140</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F8" s="5"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="F8" s="11" t="s">
+        <v>207</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="I8" s="13">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -3475,8 +3629,15 @@
         <v>166</v>
       </c>
       <c r="F9" s="5"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H9" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="I9" s="13">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -3493,8 +3654,15 @@
         <v>166</v>
       </c>
       <c r="F10" s="5"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H10" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="I10" s="13">
+        <f t="shared" si="0"/>
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -3514,8 +3682,15 @@
       <c r="G11" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="12" spans="1:8" ht="48" x14ac:dyDescent="0.2">
+      <c r="H11" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="I11" s="13">
+        <f t="shared" si="0"/>
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" ht="48" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -3532,8 +3707,15 @@
         <v>166</v>
       </c>
       <c r="F12" s="5"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H12" s="13">
+        <v>0.02</v>
+      </c>
+      <c r="I12" s="13">
+        <f t="shared" si="0"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -3552,8 +3734,15 @@
       <c r="F13" s="5" t="s">
         <v>178</v>
       </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H13" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I13" s="13">
+        <f t="shared" si="0"/>
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -3575,11 +3764,15 @@
       <c r="G14" s="6" t="s">
         <v>186</v>
       </c>
-      <c r="H14" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="64" x14ac:dyDescent="0.2">
+      <c r="H14" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="I14" s="13">
+        <f t="shared" si="0"/>
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" ht="64" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -3598,8 +3791,15 @@
       <c r="F15" s="5" t="s">
         <v>181</v>
       </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="H15" s="13">
+        <v>0.04</v>
+      </c>
+      <c r="I15" s="13">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -3619,8 +3819,15 @@
       <c r="G16" s="6" t="s">
         <v>186</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H16" s="13">
+        <v>3</v>
+      </c>
+      <c r="I16" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
         <v>16</v>
       </c>
@@ -3637,8 +3844,15 @@
         <v>61</v>
       </c>
       <c r="F17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H17" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I17" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
         <v>17</v>
       </c>
@@ -3655,8 +3869,15 @@
         <v>65</v>
       </c>
       <c r="F18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H18" s="13">
+        <v>0.5</v>
+      </c>
+      <c r="I18" s="13">
+        <f t="shared" si="0"/>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
         <v>18</v>
       </c>
@@ -3676,10 +3897,17 @@
         <v>172</v>
       </c>
       <c r="G19" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
+        <v>187</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="I19" s="13">
+        <f t="shared" si="0"/>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
         <v>19</v>
       </c>
@@ -3698,8 +3926,15 @@
       <c r="F20" s="5" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H20" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="I20" s="13">
+        <f t="shared" si="0"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
         <v>20</v>
       </c>
@@ -3716,8 +3951,15 @@
         <v>20</v>
       </c>
       <c r="F21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H21" s="13">
+        <v>0.3</v>
+      </c>
+      <c r="I21" s="13">
+        <f t="shared" si="0"/>
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
         <v>21</v>
       </c>
@@ -3736,8 +3978,15 @@
       <c r="F22" s="5" t="s">
         <v>177</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H22" s="13">
+        <v>0.2</v>
+      </c>
+      <c r="I22" s="13">
+        <f t="shared" si="0"/>
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
         <v>22</v>
       </c>
@@ -3754,8 +4003,15 @@
         <v>85</v>
       </c>
       <c r="F23" s="5"/>
-    </row>
-    <row r="24" spans="1:7" ht="32" x14ac:dyDescent="0.2">
+      <c r="H23" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="I23" s="13">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="32" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
         <v>23</v>
       </c>
@@ -3772,8 +4028,15 @@
         <v>85</v>
       </c>
       <c r="F24" s="5"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="H24" s="13">
+        <v>0.15</v>
+      </c>
+      <c r="I24" s="13">
+        <f t="shared" si="0"/>
+        <v>0.44999999999999996</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
         <v>24</v>
       </c>
@@ -3792,8 +4055,15 @@
       <c r="F25" s="5" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" ht="80" x14ac:dyDescent="0.2">
+      <c r="H25" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="I25" s="13">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" ht="80" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
         <v>25</v>
       </c>
@@ -3810,6 +4080,33 @@
         <v>184</v>
       </c>
       <c r="F26" s="5"/>
+      <c r="H26" s="13">
+        <v>0.25</v>
+      </c>
+      <c r="I26" s="13">
+        <f t="shared" si="0"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" ht="32" x14ac:dyDescent="0.2">
+      <c r="B27" s="12">
+        <v>1</v>
+      </c>
+      <c r="C27" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H27" s="13">
+        <v>1</v>
+      </c>
+      <c r="I27" s="13">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="C28" s="9" t="s">
+        <v>202</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/BOM.Guide.xlsx
+++ b/BOM.Guide.xlsx
@@ -9,14 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="4560" yWindow="500" windowWidth="19120" windowHeight="17500" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="6240" yWindow="500" windowWidth="19120" windowHeight="17500" tabRatio="500" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="BOM" sheetId="1" r:id="rId1"/>
     <sheet name="GUIDE" sheetId="2" r:id="rId2"/>
     <sheet name="Costing" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="0" concurrentCalc="0"/>
+  <calcPr calcId="150001" concurrentCalc="0"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
       <x14:workbookPr defaultImageDpi="32767"/>
@@ -595,9 +595,6 @@
     <t>incoming eBay 2022</t>
   </si>
   <si>
-    <t>R24, R26, R27, R29</t>
-  </si>
-  <si>
     <t>PJ301 THONKICONN6</t>
   </si>
   <si>
@@ -607,9 +604,6 @@
     <t>a tl074 almost works but the fancy opamp is better</t>
   </si>
   <si>
-    <t>J112 works too. Trying others.</t>
-  </si>
-  <si>
     <t>pre-bend to lay flat on board inside</t>
   </si>
   <si>
@@ -659,6 +653,12 @@
   </si>
   <si>
     <t>Total Kit Price estimate</t>
+  </si>
+  <si>
+    <t>R27, R30</t>
+  </si>
+  <si>
+    <t>J112 and MMBF4392 work too</t>
   </si>
 </sst>
 </file>
@@ -2870,8 +2870,8 @@
   </sheetPr>
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -2885,7 +2885,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="8" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.2">
@@ -2925,7 +2925,7 @@
         <v>166</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="32" x14ac:dyDescent="0.2">
@@ -3005,19 +3005,16 @@
         <v>6</v>
       </c>
       <c r="B8" s="3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>188</v>
+        <v>164</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>136</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>166</v>
-      </c>
-      <c r="F8" s="5" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.2">
@@ -3025,10 +3022,10 @@
         <v>7</v>
       </c>
       <c r="B9" s="3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>143</v>
+        <v>208</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>144</v>
@@ -3036,7 +3033,9 @@
       <c r="E9" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="F9" s="5"/>
+      <c r="F9" s="5" t="s">
+        <v>192</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
@@ -3165,13 +3164,13 @@
         <v>66</v>
       </c>
       <c r="D16" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="E16" s="5" t="s">
+        <v>194</v>
+      </c>
+      <c r="F16" s="7" t="s">
         <v>190</v>
-      </c>
-      <c r="E16" s="5" t="s">
-        <v>196</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.2">
@@ -3188,7 +3187,7 @@
         <v>59</v>
       </c>
       <c r="E17" s="5" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="F17" s="5"/>
     </row>
@@ -3206,7 +3205,7 @@
         <v>63</v>
       </c>
       <c r="E18" s="5" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="F18" s="5"/>
     </row>
@@ -3227,7 +3226,7 @@
         <v>185</v>
       </c>
       <c r="F19" s="5" t="s">
-        <v>192</v>
+        <v>209</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.2">
@@ -3267,7 +3266,7 @@
         <v>174</v>
       </c>
       <c r="F21" s="5" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.2">
@@ -3284,10 +3283,10 @@
         <v>18</v>
       </c>
       <c r="E22" s="5" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="F22" s="5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="23" spans="1:6" ht="80" x14ac:dyDescent="0.2">
@@ -3357,7 +3356,7 @@
         <v>155</v>
       </c>
       <c r="D26" s="4" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E26" s="5" t="s">
         <v>184</v>
@@ -3401,13 +3400,13 @@
         <v>169</v>
       </c>
       <c r="G1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H1" t="s">
+        <v>202</v>
+      </c>
+      <c r="I1" t="s">
         <v>203</v>
-      </c>
-      <c r="H1" t="s">
-        <v>204</v>
-      </c>
-      <c r="I1" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="2" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -3463,13 +3462,13 @@
         <v>7.0000000000000007E-2</v>
       </c>
       <c r="K3" t="s">
+        <v>204</v>
+      </c>
+      <c r="L3" t="s">
         <v>206</v>
       </c>
-      <c r="L3" t="s">
-        <v>208</v>
-      </c>
       <c r="M3" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="4" spans="1:13" ht="48" x14ac:dyDescent="0.2">
@@ -3602,7 +3601,7 @@
         <v>166</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="H8" s="13">
         <v>0.01</v>
@@ -4093,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="C27" s="9" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="H27" s="13">
         <v>1</v>
@@ -4105,7 +4104,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="C28" s="9" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>
